--- a/backend/BD/users.xlsx
+++ b/backend/BD/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/561c6e8c936f8f3e/Documentos/Faculdade-Notebook_Marcus-3/Trozzi 2.0/backend/BD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/561c6e8c936f8f3e/Documentos/Faculdade-Notebook_Marcus-3/Trozzi/backend/BD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_AD4D361C20488DEA4E38A0A574DD695C5ADEDD99" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F2EED3C-F360-4D40-8387-D935F72506EA}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_AD4D361C20488DEA4E38A0A574DD695C5ADEDD99" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3751A75-95BA-4BEE-B88E-26EEE842DD6D}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="4350" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Marcus</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Daniel</t>
+  </si>
+  <si>
+    <t>e46ae745-b439-4486-80e0-473ff4e09a9d</t>
+  </si>
+  <si>
+    <t>Silvia</t>
   </si>
 </sst>
 </file>
@@ -385,18 +391,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -407,7 +413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -418,7 +424,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -429,7 +435,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -440,7 +446,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -451,7 +457,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -460,6 +466,17 @@
       </c>
       <c r="C6">
         <v>1380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>1381</v>
       </c>
     </row>
   </sheetData>

--- a/backend/BD/users.xlsx
+++ b/backend/BD/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -458,9 +458,93 @@
         <v>adrianep34@gmail.com</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>ee6ad9eb-fec3-457e-9f42-80c74b5eb51d</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Daniel</v>
+      </c>
+      <c r="C5" t="str">
+        <v>1377</v>
+      </c>
+      <c r="D5" t="str">
+        <v>fmasadlkf@gmail.com</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>14b55562-9898-4b6d-8036-b64846824fae</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Enrique</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2101</v>
+      </c>
+      <c r="D6" t="str">
+        <v>enrique@gmail.com</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>3102bfaf-f1d4-46f3-8745-c401a0151a78</v>
+      </c>
+      <c r="B7" t="str">
+        <v>fkdjasç</v>
+      </c>
+      <c r="C7" t="str">
+        <v>12</v>
+      </c>
+      <c r="D7" t="str">
+        <v>jfhalksdjh@gmail.com</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>3bfadc1d-7458-4960-bddd-28c6367c6473</v>
+      </c>
+      <c r="B8" t="str">
+        <v>dsafds</v>
+      </c>
+      <c r="C8" t="str">
+        <v>21</v>
+      </c>
+      <c r="D8" t="str">
+        <v>dfasdf@gmail.com</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>4b7488d0-fe4f-46cc-b519-e058bd2be3b7</v>
+      </c>
+      <c r="B9" t="str">
+        <v>sdadf</v>
+      </c>
+      <c r="C9" t="str">
+        <v>21</v>
+      </c>
+      <c r="D9" t="str">
+        <v>fasdfsdf@gmial.com</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>5ad53af3-4018-4fea-b2c4-00b6937ba621</v>
+      </c>
+      <c r="B10" t="str">
+        <v>murilo</v>
+      </c>
+      <c r="C10" t="str">
+        <v>murilo20</v>
+      </c>
+      <c r="D10" t="str">
+        <v>muriloluiz380@gmail.com</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/BD/users.xlsx
+++ b/backend/BD/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -542,9 +542,51 @@
         <v>muriloluiz380@gmail.com</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>d6086e0d-1159-41b8-b520-c89e2d28f58e</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Oruam_pai_de_familia288</v>
+      </c>
+      <c r="C11" t="str">
+        <v>123</v>
+      </c>
+      <c r="D11" t="str">
+        <v>cadique@gmail.com</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>ad2d0f24-a741-4f0b-85da-5877001aa2b1</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Precioso</v>
+      </c>
+      <c r="C12" t="str">
+        <v>12345</v>
+      </c>
+      <c r="D12" t="str">
+        <v>pauloprecioso7@gmail.com</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>77ed7f02-55ba-4107-9fcb-b80bf50e6184</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Zika</v>
+      </c>
+      <c r="C13" t="str">
+        <v>12345</v>
+      </c>
+      <c r="D13" t="str">
+        <v>zika@gmail.com</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D13"/>
   </ignoredErrors>
 </worksheet>
 </file>